--- a/簿记/Manufacturing Account/Year End 2018.xlsx
+++ b/簿记/Manufacturing Account/Year End 2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melvinchia/Documents/involution/簿记/Manufacturing Account/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3F8A96-8A8E-ED4A-B6FF-824CAC03F8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BE6A1F-0107-7842-8EBD-0125377FEB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{4D3F3FC6-135A-1045-9D6F-642B87F3B300}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4D3F3FC6-135A-1045-9D6F-642B87F3B300}"/>
   </bookViews>
   <sheets>
     <sheet name="Manufacturing Account" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>Cost of Material Consumed</t>
   </si>
@@ -587,10 +587,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -606,7 +606,7 @@
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -614,7 +614,7 @@
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
@@ -622,7 +622,7 @@
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
@@ -638,9 +638,7 @@
       <c r="C5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>1</v>
-      </c>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -655,8 +653,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4">
+      <c r="C7" s="4">
         <v>45000</v>
       </c>
     </row>
@@ -677,290 +674,270 @@
       <c r="B9" s="6">
         <v>-10500</v>
       </c>
-      <c r="C9" s="7">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="7">
         <f>B8+B9</f>
         <v>109500</v>
       </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="6">
+      <c r="B11" s="6">
         <v>5000</v>
       </c>
-      <c r="D10" s="6">
-        <f>C9+C10</f>
+      <c r="C11" s="6">
+        <f>B10+B11</f>
         <v>114500</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="7">
-        <f>D10+D7</f>
+    <row r="12" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="7">
+        <f>C11+C7</f>
         <v>159500</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="6">
+      <c r="B13" s="4"/>
+      <c r="C13" s="6">
         <v>-48000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4">
-        <f>D11+D12</f>
+    <row r="14" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4">
+        <f>C12+C13</f>
         <v>111500</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="6">
+      <c r="B15" s="4"/>
+      <c r="C15" s="6">
         <v>-1000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4">
-        <f>D13+D14</f>
+    <row r="16" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4">
+        <f>C14+C15</f>
         <v>110500</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+    <row r="17" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="4">
+    </row>
+    <row r="18" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4">
         <v>88000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+    <row r="19" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="6">
+    </row>
+    <row r="20" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="6">
         <v>20000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+    <row r="21" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4">
-        <f>D15+D17+D19</f>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4">
+        <f>C16+C18+C20</f>
         <v>218500</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+    <row r="22" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="4">
-        <v>8000</v>
-      </c>
+      <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4">
-        <v>15000</v>
-      </c>
-      <c r="D23" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="B23" s="4">
+        <v>8000</v>
+      </c>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4">
-        <v>1500</v>
-      </c>
-      <c r="D24" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="B24" s="4">
+        <v>15000</v>
+      </c>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4">
-        <v>10500</v>
-      </c>
-      <c r="D25" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1500</v>
+      </c>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="4">
+        <v>10500</v>
+      </c>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4">
+      <c r="B27" s="4">
         <f>8000 * 70%</f>
         <v>5600</v>
       </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4">
-        <v>15000</v>
-      </c>
-      <c r="D27" s="4"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4">
-        <v>7000</v>
-      </c>
-      <c r="D28" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="B28" s="4">
+        <v>15000</v>
+      </c>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="4">
+        <v>7000</v>
+      </c>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="6">
+      <c r="B30" s="6">
         <v>24000</v>
       </c>
-      <c r="D29" s="6">
-        <f>SUM(C22:C29)</f>
+      <c r="C30" s="6">
+        <f>SUM(B23:B30)</f>
         <v>86600</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4">
-        <f>D29+D20</f>
+    <row r="31" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4">
+        <f>C30+C21</f>
         <v>305100</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="6">
+      <c r="B32" s="4"/>
+      <c r="C32" s="6">
         <v>21000</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4">
-        <f>D30+D31</f>
+    <row r="33" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4">
+        <f>C31+C32</f>
         <v>326100</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+    <row r="34" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="6">
+      <c r="B34" s="4"/>
+      <c r="C34" s="6">
         <v>-25000</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+    <row r="35" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4">
-        <f>D32+D33</f>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4">
+        <f>C33+C34</f>
         <v>301100</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
+    <row r="36" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="6">
-        <f>D36-D34</f>
+      <c r="B36" s="4"/>
+      <c r="C36" s="6">
+        <f>C37-C35</f>
         <v>98900</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+    <row r="37" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="9">
+      <c r="B37" s="4"/>
+      <c r="C37" s="9">
         <v>400000</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="95" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -971,7 +948,7 @@
   </sheetPr>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="116" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="116" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
